--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sszs_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sszs_vorlage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06C7870-BB8F-4A70-9B7B-352554DA1A6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8765F5B-3ED4-4FF7-8925-1F170C7B96FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1740,12 +1740,16 @@
     <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
+  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1791,20 +1795,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -1996,7 +1987,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -2004,23 +2012,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD45C59E-C13E-4B92-9551-AE1790848EFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2037,4 +2029,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sszs_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sszs_vorlage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8765F5B-3ED4-4FF7-8925-1F170C7B96FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8247FF3-ED7D-4F65-85C3-072F93CD1F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1070,37 +1070,25 @@
   <dimension ref="B1:AG62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.85546875" style="1" customWidth="1"/>
+    <col min="6" max="11" width="4" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="4" style="1" customWidth="1"/>
     <col min="15" max="15" width="6.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="3.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="2.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3" style="1" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.140625" style="1" customWidth="1"/>
+    <col min="17" max="21" width="5.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.85546875" style="1" customWidth="1"/>
+    <col min="25" max="26" width="5.7109375" style="1" customWidth="1"/>
     <col min="27" max="27" width="3.28515625" style="1" customWidth="1"/>
     <col min="28" max="28" width="3.140625" style="1" customWidth="1"/>
     <col min="29" max="29" width="8.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1746,10 +1734,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1795,7 +1779,20 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -1987,16 +1984,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
@@ -2004,15 +2000,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD45C59E-C13E-4B92-9551-AE1790848EFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2029,12 +2025,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sszs_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sszs_vorlage.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws_intern\planpro\set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8247FF3-ED7D-4F65-85C3-072F93CD1F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABF4D9D-0DBA-4F4F-A96F-DBE8809573CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sszs_Beispielbefüllung" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sszs_Beispielbefüllung!$A$1:$AG$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sszs_Beispielbefüllung!$A$1:$AI$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sszs_Beispielbefüllung!$A:$B,Sszs_Beispielbefüllung!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>A</t>
   </si>
@@ -143,9 +143,6 @@
     <t>AF</t>
   </si>
   <si>
-    <t>Signal-Art</t>
-  </si>
-  <si>
     <t>ETCS-Gefahrpunkt</t>
   </si>
   <si>
@@ -155,15 +152,9 @@
     <t>Sonstige Funktionen</t>
   </si>
   <si>
-    <t>Tunnelbegegnungverbot (TBV)</t>
-  </si>
-  <si>
     <t>Ansteuerung</t>
   </si>
   <si>
-    <t>Bemekung</t>
-  </si>
-  <si>
     <t>Standort</t>
   </si>
   <si>
@@ -176,67 +167,12 @@
     <t>Zs 8</t>
   </si>
   <si>
-    <t>Loesch-
-ung Zs 1/7/8</t>
-  </si>
-  <si>
     <t>Kl</t>
   </si>
   <si>
-    <t>Ne 14 Rz Nr. (Bild)</t>
-  </si>
-  <si>
-    <t>Bezeichn-
-ung</t>
-  </si>
-  <si>
-    <t>Abstand vom Signal</t>
-  </si>
-  <si>
     <t>&lt; 50 m</t>
   </si>
   <si>
-    <t>50 bis &lt; 200 m</t>
-  </si>
-  <si>
-    <t>&gt;= 200 m</t>
-  </si>
-  <si>
-    <t>Dunkelschalt-
-anstoss</t>
-  </si>
-  <si>
-    <t>Dend</t>
-  </si>
-  <si>
-    <t>Einstieg erlaubt</t>
-  </si>
-  <si>
-    <t>Ausstieg bei ETCS
--Sperre</t>
-  </si>
-  <si>
-    <t>dHaltFall</t>
-  </si>
-  <si>
-    <t>Haltfallkriterium 2</t>
-  </si>
-  <si>
-    <t>Meldepunkt</t>
-  </si>
-  <si>
-    <t>Länge Tunnelbereich (bei Portalsignal)</t>
-  </si>
-  <si>
-    <t>Tunnelsignal</t>
-  </si>
-  <si>
-    <t>ESTW-Zentraleinheit</t>
-  </si>
-  <si>
-    <t>Stellbereich</t>
-  </si>
-  <si>
     <t>Strecke</t>
   </si>
   <si>
@@ -246,15 +182,135 @@
     <t>m</t>
   </si>
   <si>
-    <t>Fahrstell-
-ung</t>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Tunnelbegegnungs-
+verbot (TBV)</t>
+  </si>
+  <si>
+    <t>Bemerkung</t>
+  </si>
+  <si>
+    <t>Löschg. Zs 1/7/8</t>
+  </si>
+  <si>
+    <t>Ne 14</t>
+  </si>
+  <si>
+    <t>Ab-
+stand
+vom
+Signal</t>
+  </si>
+  <si>
+    <t>50 bis
+ &lt; 200 m</t>
+  </si>
+  <si>
+    <t>≥ 200 m</t>
+  </si>
+  <si>
+    <t>Dunkel-
+schalt-
+anstoß</t>
+  </si>
+  <si>
+    <t>Autom.
+Fahrt-
+stellung</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>End</t>
+    </r>
+  </si>
+  <si>
+    <t>Ein-
+stieg 
+erlaubt</t>
+  </si>
+  <si>
+    <t>Aus-
+stieg 
+bei 
+ETCS-
+Sperre</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Haltfall</t>
+    </r>
+  </si>
+  <si>
+    <t>Haltfall-
+kriterium 2</t>
+  </si>
+  <si>
+    <t>ZSS</t>
+  </si>
+  <si>
+    <t>Melde-
+punkt</t>
+  </si>
+  <si>
+    <t>Länge 
+Tunnel-
+bereich 
+(Portal-
+signal)</t>
+  </si>
+  <si>
+    <t>Tunnel-
+signal</t>
+  </si>
+  <si>
+    <t>ESTW-
+ZE</t>
+  </si>
+  <si>
+    <t>Stell-
+bereich</t>
+  </si>
+  <si>
+    <t>keine 
+Über-
+trag. an
+RBC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,14 +324,42 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
-      <name val="Arial Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -287,7 +371,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -410,17 +494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -489,41 +562,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -558,180 +596,288 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{632FB193-3F1D-46A2-A3F4-19A33ACC5B96}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -747,9 +893,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -787,9 +933,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -822,26 +968,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -874,26 +1003,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1067,658 +1179,778 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AG62"/>
+  <dimension ref="A1:AI62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="5.85546875" style="1" customWidth="1"/>
-    <col min="6" max="11" width="4" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="4" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="1" customWidth="1"/>
-    <col min="17" max="21" width="5.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.85546875" style="1" customWidth="1"/>
-    <col min="25" max="26" width="5.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="3.140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="6.28515625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="9.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
+    <col min="6" max="11" width="3.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" style="1" customWidth="1"/>
+    <col min="18" max="21" width="5.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="5.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.28515625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="5.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="5" style="1" customWidth="1"/>
+    <col min="33" max="33" width="5.7109375" style="3" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="24" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="AH1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" s="58" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
+    <row r="2" spans="1:35" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="44" t="s">
+      <c r="Q2" s="15"/>
+      <c r="R2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="44" t="s">
+      <c r="S2" s="14"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="44" t="s">
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="44" t="s">
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="44" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="17" t="s">
+      <c r="G3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>45</v>
       </c>
+      <c r="K3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI3" s="24"/>
     </row>
-    <row r="3" spans="2:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="21" t="s">
+    <row r="4" spans="1:35" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="E4" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="21" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="24"/>
+    </row>
+    <row r="5" spans="1:35" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="W3" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z3" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA3" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC3" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD3" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF3" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG3" s="22"/>
+      <c r="R5" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="32"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="39"/>
     </row>
-    <row r="4" spans="2:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="33"/>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="63"/>
     </row>
-    <row r="5" spans="2:33" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="R5" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="S5" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="T5" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="42"/>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="63"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="8"/>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="49"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="12"/>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="50"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="49"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="AG8" s="1"/>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="50"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="49"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="AG9" s="1"/>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="50"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="45"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="AG10" s="1"/>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="55"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="AG11" s="1"/>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="44"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="AG12" s="1"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="AG13" s="1"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="AG17" s="1"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="AG18" s="1"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="AG19" s="1"/>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="AG20" s="1"/>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="AG21" s="1"/>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="AG22" s="1"/>
-    </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="AG23" s="1"/>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="AG24" s="1"/>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="AG25" s="1"/>
-    </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="AG26" s="1"/>
-    </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="AG27" s="1"/>
-    </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="AG28" s="1"/>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="AG29" s="1"/>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="AG30" s="1"/>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="AG31" s="1"/>
-    </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="AG32" s="1"/>
-    </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="AG33" s="1"/>
-    </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="AG34" s="1"/>
-    </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="AG35" s="1"/>
-    </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="AG36" s="1"/>
-    </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="AG37" s="1"/>
-    </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="AG38" s="1"/>
-    </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="AG39" s="1"/>
-    </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="AG40" s="1"/>
-    </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="AG41" s="1"/>
-    </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="AG42" s="1"/>
-    </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="AG43" s="1"/>
-    </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="AG44" s="1"/>
-    </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="AG45" s="1"/>
-    </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="AG46" s="1"/>
-    </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="AG47" s="1"/>
-    </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="AG48" s="1"/>
-    </row>
-    <row r="49" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="AG49" s="1"/>
-    </row>
-    <row r="50" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="AG50" s="1"/>
-    </row>
-    <row r="51" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="AG51" s="1"/>
-    </row>
-    <row r="52" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="AG52" s="1"/>
-    </row>
-    <row r="53" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="AG53" s="1"/>
-    </row>
-    <row r="54" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="AG54" s="1"/>
-    </row>
-    <row r="55" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="AG55" s="1"/>
-    </row>
-    <row r="56" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-      <c r="AG56" s="1"/>
-    </row>
-    <row r="57" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="AG57" s="1"/>
-    </row>
-    <row r="58" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="AG58" s="1"/>
-    </row>
-    <row r="59" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="AG59" s="1"/>
-    </row>
-    <row r="60" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="AG60" s="1"/>
-    </row>
-    <row r="61" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-      <c r="AG61" s="1"/>
-    </row>
-    <row r="62" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="AG62" s="1"/>
-    </row>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="40">
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
@@ -1726,14 +1958,23 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="U2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1779,20 +2020,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -1984,7 +2212,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -1992,23 +2237,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD45C59E-C13E-4B92-9551-AE1790848EFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2025,4 +2254,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sszs_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sszs_vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws_intern\planpro\set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\sbider\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABF4D9D-0DBA-4F4F-A96F-DBE8809573CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BB28B6-5A52-490B-AB49-E4DE74402524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sszs_Beispielbefüllung" sheetId="9" r:id="rId1"/>
@@ -675,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -713,61 +713,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -813,42 +759,23 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -859,20 +786,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1182,7 +1163,7 @@
   <dimension ref="A1:AI62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1318,550 +1299,549 @@
       <c r="AH1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="58" t="s">
+      <c r="AI1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="13" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="14" t="s">
+      <c r="Q2" s="42"/>
+      <c r="R2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="14" t="s">
+      <c r="S2" s="42"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="14" t="s">
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="14" t="s">
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="16" t="s">
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="X3" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="Z3" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AA3" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AB3" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AC3" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="AD3" s="21" t="s">
+      <c r="AD3" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AE3" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AF3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="18" t="s">
+      <c r="AG3" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AH3" s="18" t="s">
+      <c r="AH3" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="AI3" s="24"/>
+      <c r="AI3" s="58"/>
     </row>
     <row r="4" spans="1:35" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="56" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="24"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="58"/>
     </row>
     <row r="5" spans="1:35" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="38" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="S5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="32"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="34" t="s">
+      <c r="U5" s="14"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34" t="s">
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="33" t="s">
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="39"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="21"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="63"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="40"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="63"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="40"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="49"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="31"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="49"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="31"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="49"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="31"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="46"/>
-      <c r="AI11" s="45"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="27"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="55"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="26"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="44"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="26"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -1923,7 +1903,6 @@
     <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="AH3:AH4"/>
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="AB3:AB4"/>
@@ -1931,26 +1910,27 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="T3:T4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
@@ -1959,10 +1939,10 @@
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="U2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>

--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sszs_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sszs_vorlage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\sbider\data\export\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws_intern\planpro\set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BB28B6-5A52-490B-AB49-E4DE74402524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035A18A8-4321-4356-864E-68125CD84E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sszs_Beispielbefüllung" sheetId="9" r:id="rId1"/>
@@ -371,7 +371,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -404,15 +404,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -457,7 +448,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -471,7 +464,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -485,69 +478,6 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -568,7 +498,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -577,96 +520,75 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -686,34 +608,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -722,25 +641,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -777,13 +681,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -801,58 +705,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1163,7 +1046,7 @@
   <dimension ref="A1:AI62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1203,645 +1086,645 @@
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="35" t="s">
+      <c r="AI1" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="41" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="41" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="41" t="s">
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="41" t="s">
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="41" t="s">
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="13" t="s">
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="44" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="R3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="T3" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="44" t="s">
+      <c r="U3" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="50" t="s">
+      <c r="V3" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="W3" s="46" t="s">
+      <c r="W3" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="X3" s="46" t="s">
+      <c r="X3" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="Y3" s="46" t="s">
+      <c r="Y3" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="Z3" s="46" t="s">
+      <c r="Z3" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="AA3" s="46" t="s">
+      <c r="AA3" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" s="46" t="s">
+      <c r="AB3" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" s="44" t="s">
+      <c r="AC3" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AD3" s="50" t="s">
+      <c r="AD3" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="AE3" s="46" t="s">
+      <c r="AE3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AF3" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="46" t="s">
+      <c r="AG3" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="AH3" s="46" t="s">
+      <c r="AH3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AI3" s="58"/>
+      <c r="AI3" s="36"/>
     </row>
     <row r="4" spans="1:35" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="33" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="58"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="36"/>
     </row>
     <row r="5" spans="1:35" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="20" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="14"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="16" t="s">
+      <c r="U5" s="12"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16" t="s">
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="15" t="s">
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="21"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="15"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="40"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="34"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="40"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="34"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="31"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="25"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="31"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="25"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="31"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="25"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="27"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="21"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="26"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="20"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="26"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="20"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -1903,30 +1786,6 @@
     <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="B3:B4"/>
@@ -1943,6 +1802,30 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
@@ -1951,56 +1834,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -2192,6 +2025,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2202,22 +2085,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD45C59E-C13E-4B92-9551-AE1790848EFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2236,6 +2103,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
   <ds:schemaRefs>
